--- a/biology/Botanique/Philippe_Faure-Brac/Philippe_Faure-Brac.xlsx
+++ b/biology/Botanique/Philippe_Faure-Brac/Philippe_Faure-Brac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Faure-Brac, né le 25 février 1960 à Marseille, est un chef sommelier français qui a notamment remporté le concours du Meilleur Sommelier du Monde 1992 à Rio de Janeiro. Il est président de l'Union de la sommellerie française de 2016 à 2023.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Faure-Brac est le fils d'Emile Louis Faure-Brac, expert-comptable et de Jeannine Allègre, esthéticienne. Ses grands-parents qui possédaient l’hôtel-restaurant les 3 Chamois à Briançon, lui inoculent le virus de la cuisine et de la restauration[1].
-C'est lors de ses études de cuisinier que Philippe Faure-Brac se passionne pour le vin et se tourne vers le métier de sommelier. Il obtient son CAP et son BEP Cuisine au lycée polyvalent Paul-Arène à Sisteron, son BTH-restauration au lycée technique hôtelier Lesdiguières de Grenoble enfin un BTS en gestion des entreprises de restauration et son CAP de Sommelier au lycée technique hôtelier de Nice[1].
-Après diverses expériences dans des restaurants parisiens, il ouvre et dirige depuis 1984 son restaurant le « Bistrot du Sommelier » au 97 boulevard Haussmann dans le 8e arrondissement de Paris[2].
-Il se marie le 3 juin 1989 avec Nadine Padovani avec qui il a deux enfants Célia et Mathias. Bien qu'ils soient divorcés, le couple reste associé dans la gestion du « Bistrot du Sommelier »[1]. Il vit aujourd’hui avec Alexandra Del Medico et ses deux enfants Matthieu et Thomas Six.
-Membre du comité national de l’INAO depuis 1998 et du bureau de l'Association de la sommellerie internationale depuis 2004, il est fait Chevalier de l'Ordre du Mérite agricole en 1995 et Chevalier de l'Ordre National du Mérite en 2005[3]. Il est promu en 2018 Officier de l'Ordre du Mérite Agricole.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Faure-Brac est le fils d'Emile Louis Faure-Brac, expert-comptable et de Jeannine Allègre, esthéticienne. Ses grands-parents qui possédaient l’hôtel-restaurant les 3 Chamois à Briançon, lui inoculent le virus de la cuisine et de la restauration.
+C'est lors de ses études de cuisinier que Philippe Faure-Brac se passionne pour le vin et se tourne vers le métier de sommelier. Il obtient son CAP et son BEP Cuisine au lycée polyvalent Paul-Arène à Sisteron, son BTH-restauration au lycée technique hôtelier Lesdiguières de Grenoble enfin un BTS en gestion des entreprises de restauration et son CAP de Sommelier au lycée technique hôtelier de Nice.
+Après diverses expériences dans des restaurants parisiens, il ouvre et dirige depuis 1984 son restaurant le « Bistrot du Sommelier » au 97 boulevard Haussmann dans le 8e arrondissement de Paris.
+Il se marie le 3 juin 1989 avec Nadine Padovani avec qui il a deux enfants Célia et Mathias. Bien qu'ils soient divorcés, le couple reste associé dans la gestion du « Bistrot du Sommelier ». Il vit aujourd’hui avec Alexandra Del Medico et ses deux enfants Matthieu et Thomas Six.
+Membre du comité national de l’INAO depuis 1998 et du bureau de l'Association de la sommellerie internationale depuis 2004, il est fait Chevalier de l'Ordre du Mérite agricole en 1995 et Chevalier de l'Ordre National du Mérite en 2005. Il est promu en 2018 Officier de l'Ordre du Mérite Agricole.
 En 2000, il crée le concours "Un des Meilleurs Ouvriers de France" option Sommellerie et en assure la présidence depuis l'origine. Il est président de 2016 à 2023 de l’Union de la Sommellerie Française, suivi par Fabrice Sommier.
 En 2007, il devient associé au Domaine Duseigneur. Outre son immense connaissance du monde du vin, Philippe apporte une grande précision dans les choix des cuvées et des assemblages.
 </t>
@@ -548,9 +562,11 @@
           <t>Le chabrot du Grand Jury Européen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si faire chabrot est aujourd'hui considéré comme un geste vieilli et campagnard, il peut, dans certaines occasions, se faire dans tous les milieux, dans un esprit de connivence et de convivialité. Lors d'un repas entre gastronomes, Philippe Faure-Brac, membre du GJE[4], se leva et demanda l'autorisation de faire chabrot avec son reste de velouté de champignon et un Cheval Blanc 1998. Pierre Lurton, directeur des sociétés des châteaux d'Yquem et de Cheval Blanc, lui répondit en versant le fond de son verre dans le potage. Tout le monde fit de même. Cette version moderne de chabrot a consisté à finir de déguster le mélange à la cuillère, mais aucun n'a bu directement à l'assiette.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si faire chabrot est aujourd'hui considéré comme un geste vieilli et campagnard, il peut, dans certaines occasions, se faire dans tous les milieux, dans un esprit de connivence et de convivialité. Lors d'un repas entre gastronomes, Philippe Faure-Brac, membre du GJE, se leva et demanda l'autorisation de faire chabrot avec son reste de velouté de champignon et un Cheval Blanc 1998. Pierre Lurton, directeur des sociétés des châteaux d'Yquem et de Cheval Blanc, lui répondit en versant le fond de son verre dans le potage. Tout le monde fit de même. Cette version moderne de chabrot a consisté à finir de déguster le mélange à la cuillère, mais aucun n'a bu directement à l'assiette.
 </t>
         </is>
       </c>
@@ -581,17 +597,90 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Palmarès de sommelier
-Meilleur jeune sommelier de France 1984 (Trophée Ruinart)
+          <t>Palmarès de sommelier</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Meilleur jeune sommelier de France 1984 (Trophée Ruinart)
 Meilleur sommelier de France 1988
 Meilleur sommelier du Monde 1992 à Rio de Janeiro
 Maître Sommelier de France (UDSF) en 1992
-Meilleur ouvrier de France 2015 - catégorie « Honoris Causa »
-Distinctions
- Chevalier de l'ordre national du Mérite Il est fait chevalier le 13 mai 2005[5].
- Officier de l'ordre du Mérite agricole Il est chevalier depuis 1995, et est promu officier de l'ordre en 2018.
-Prix littéraires
-1999 : Prix du Meilleur Livre du Vin, Salon International du Livre de Périgueux
+Meilleur ouvrier de France 2015 - catégorie « Honoris Causa »</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre national du Mérite Il est fait chevalier le 13 mai 2005.
+ Officier de l'ordre du Mérite agricole Il est chevalier depuis 1995, et est promu officier de l'ordre en 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1999 : Prix du Meilleur Livre du Vin, Salon International du Livre de Périgueux
 1999 : Prix du Meilleur Livre de Cave, Salon du livre et du vin de Saumur
 2000 : Gourmand World Cookbook Awards - « Special Award of the Millenium » pour le livre Les Vins du Siècle'
 2004 : Prix Edmond de Rothschild pour le livre Vins &amp; mets du Monde
@@ -599,40 +688,76 @@
 2006 : Gourmand World Cookbook Awards dans la catégorie meilleur livre
 2006 : Prix Curnonsky du Meilleur Livre de l'année pour le livre Comment goûter un vin
 2007 : Gourmand World Cookbook Awards France et monde pour le livre Comment goûter un vin
-2013 : Prix de la « Forêt des livres Gonzague Saint Bris »
-Prix et récompenses
-1993 : Personnalité de l’année par le Guide Champérard
+2013 : Prix de la « Forêt des livres Gonzague Saint Bris »</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Faure-Brac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Récompenses et distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix et récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1993 : Personnalité de l’année par le Guide Champérard
 1996 : Nef d’Or de l’Entreprise de la Chambre de Commerce de Paris
 2005 et 2007 : Grand Prix de la Presse du Vin
 2007 : « Best Award of Excellence » du magazine Wine Spectator</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Philippe_Faure-Brac</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Philippe_Faure-Brac</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La Cave idéale, EPA éditions, 1998 (ISBN 2-85120-517-X et 9782851205179, OCLC 467625638).
 Le Livre de cave, EPA éditions, 1998 (ISBN 2-85120-520-X et 9782851205209, OCLC 633684956).
